--- a/Modules/CustomFormData/table_tabletemplate.xlsx
+++ b/Modules/CustomFormData/table_tabletemplate.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1234">
   <si>
     <t>Loginid</t>
   </si>
@@ -3688,9 +3688,6 @@
     <t>formjson</t>
   </si>
   <si>
-    <t>table_tablename_TableEntityMapping</t>
-  </si>
-  <si>
     <t>same as Stepitem</t>
   </si>
   <si>
@@ -3725,16 +3722,32 @@
   </si>
   <si>
     <t>TableColumnMaster</t>
+  </si>
+  <si>
+    <t>table_TableEntityMapping</t>
+  </si>
+  <si>
+    <t>entityTypeID</t>
+  </si>
+  <si>
+    <t>APIKey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3781,11 +3794,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4092,7 +4106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18516,17 +18530,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
@@ -18534,10 +18546,10 @@
   <sheetData>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -18556,13 +18568,13 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1221</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1222</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -18594,7 +18606,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -18627,17 +18639,17 @@
       <c r="L5" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="4" t="s">
         <v>1213</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -18778,7 +18790,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -18812,8 +18824,12 @@
       <c r="E13" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1233</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -18872,7 +18888,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -18895,13 +18911,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C20" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D20" t="s">
         <v>1229</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -18909,16 +18925,17 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C21" t="s">
         <v>1228</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>1229</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modules/CustomFormData/table_tabletemplate.xlsx
+++ b/Modules/CustomFormData/table_tabletemplate.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1232">
   <si>
     <t>Loginid</t>
   </si>
@@ -3662,12 +3662,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entityid </t>
-  </si>
-  <si>
-    <t>frameworfid</t>
   </si>
   <si>
     <t>fullformjson</t>
@@ -3737,17 +3731,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3794,12 +3781,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4106,7 +4092,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18528,7 +18514,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:P21"/>
+  <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18539,17 +18525,15 @@
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -18562,19 +18546,16 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -18590,11 +18571,8 @@
         <v>1</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>1201</v>
       </c>
@@ -18606,17 +18584,14 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>1202</v>
       </c>
@@ -18639,20 +18614,11 @@
       <c r="L5" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="M5" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18676,11 +18642,8 @@
         <v>1209</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18704,11 +18667,8 @@
         <v>1209</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -18730,11 +18690,8 @@
         <v>1210</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -18748,11 +18705,8 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -18766,11 +18720,8 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -18784,13 +18735,10 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -18804,31 +18752,28 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1216</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -18836,11 +18781,8 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -18854,7 +18796,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -18864,11 +18806,8 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -18882,17 +18821,14 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="18" spans="1:16">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>1225</v>
-      </c>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1223</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>1201</v>
       </c>
@@ -18906,32 +18842,32 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C20" t="s">
         <v>1226</v>
       </c>
-      <c r="C20" t="s">
-        <v>1228</v>
-      </c>
       <c r="D20" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D21" t="s">
         <v>1227</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1229</v>
       </c>
     </row>
   </sheetData>
